--- a/Bimbingan Karir - A11.4701/SoftSkil_16_Nov_2024.xlsx
+++ b/Bimbingan Karir - A11.4701/SoftSkil_16_Nov_2024.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ninik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C26787A-121E-4615-B033-649097364427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Klp_1" sheetId="1" r:id="rId1"/>
@@ -1629,30 +1630,15 @@
     <t>: MUKAROMAH, M.I.Kom</t>
   </si>
   <si>
-    <t>: H.4.7</t>
-  </si>
-  <si>
     <t>: ZAHROTUL UMAMI, M.I.Kom</t>
   </si>
   <si>
-    <t>: H.4.8</t>
-  </si>
-  <si>
     <t>: HENI INDRAYANI, M.I.Kom</t>
   </si>
   <si>
-    <t>: H.4.9</t>
-  </si>
-  <si>
     <t>: MUHAMMAD NOOR HIDAYAT, M.I.Kom</t>
   </si>
   <si>
-    <t>: H.4.10</t>
-  </si>
-  <si>
-    <t>: H.4.11</t>
-  </si>
-  <si>
     <t>BRYAN KORNELES SAPUTRA FARNEUBUN</t>
   </si>
   <si>
@@ -1905,9 +1891,6 @@
     <t>: SWITA AMALLIA HAPSARI, M.I.Kom</t>
   </si>
   <si>
-    <t>: NAIZA ROSALIA, M.Si</t>
-  </si>
-  <si>
     <t>: ASTINI KUMALASARI, SE, M.I.Kom</t>
   </si>
   <si>
@@ -2143,12 +2126,30 @@
   </si>
   <si>
     <t>MUHAMMAD SADDAM NURDIYANTO</t>
+  </si>
+  <si>
+    <t>: H.5.2</t>
+  </si>
+  <si>
+    <t>: H.5.3</t>
+  </si>
+  <si>
+    <t>: H.5.4</t>
+  </si>
+  <si>
+    <t>: H.5.6</t>
+  </si>
+  <si>
+    <t>: H.5.7</t>
+  </si>
+  <si>
+    <t>: HERI PAMUNGKAS, S.S.M.I.KOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2258,25 +2259,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2565,7 +2559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2589,24 +2583,24 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -2676,11 +2670,11 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2996,7 +2990,7 @@
         <v>480</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
@@ -3030,8 +3024,8 @@
       <c r="C33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>520</v>
       </c>
       <c r="F33" s="3"/>
@@ -3047,7 +3041,7 @@
         <v>49</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3056,15 +3050,15 @@
       <c r="A35" s="3">
         <v>24</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>550</v>
+      <c r="B35" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>545</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -3072,14 +3066,14 @@
       <c r="A36" s="3">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>552</v>
+      <c r="B36" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>547</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3088,15 +3082,15 @@
       <c r="A37" s="3">
         <v>26</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>554</v>
+      <c r="B37" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>549</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -3105,13 +3099,13 @@
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3121,14 +3115,14 @@
         <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -3137,13 +3131,13 @@
         <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3160,11 +3154,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A3:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3175,24 +3169,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -3229,7 +3223,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3240,7 +3234,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>537</v>
+        <v>700</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3262,11 +3256,11 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3274,42 +3268,42 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>499</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>404</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>406</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -3322,10 +3316,10 @@
       <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>408</v>
       </c>
       <c r="D15" s="3"/>
@@ -3338,10 +3332,10 @@
       <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>410</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -3354,10 +3348,10 @@
       <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>412</v>
       </c>
       <c r="D17" s="3"/>
@@ -3370,10 +3364,10 @@
       <c r="A18" s="1">
         <v>7</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>414</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -3386,10 +3380,10 @@
       <c r="A19" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>416</v>
       </c>
       <c r="D19" s="3"/>
@@ -3402,10 +3396,10 @@
       <c r="A20" s="1">
         <v>9</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>418</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -3418,10 +3412,10 @@
       <c r="A21" s="1">
         <v>10</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>420</v>
       </c>
       <c r="D21" s="3"/>
@@ -3434,10 +3428,10 @@
       <c r="A22" s="1">
         <v>11</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>422</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -3450,10 +3444,10 @@
       <c r="A23" s="1">
         <v>12</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>424</v>
       </c>
       <c r="D23" s="3"/>
@@ -3466,10 +3460,10 @@
       <c r="A24" s="1">
         <v>13</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -3482,10 +3476,10 @@
       <c r="A25" s="1">
         <v>14</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>428</v>
       </c>
       <c r="D25" s="3"/>
@@ -3498,10 +3492,10 @@
       <c r="A26" s="1">
         <v>15</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>430</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -3514,10 +3508,10 @@
       <c r="A27" s="1">
         <v>16</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>432</v>
       </c>
       <c r="D27" s="3"/>
@@ -3530,10 +3524,10 @@
       <c r="A28" s="1">
         <v>17</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>434</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -3546,10 +3540,10 @@
       <c r="A29" s="1">
         <v>18</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>436</v>
       </c>
       <c r="D29" s="3"/>
@@ -3562,10 +3556,10 @@
       <c r="A30" s="1">
         <v>19</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>438</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -3578,10 +3572,10 @@
       <c r="A31" s="1">
         <v>20</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D31" s="3"/>
@@ -3594,10 +3588,10 @@
       <c r="A32" s="1">
         <v>21</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>442</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -3606,131 +3600,130 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>22</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>520</v>
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>23</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>446</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>24</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>604</v>
+      <c r="B35" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>599</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>606</v>
+      <c r="B36" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>601</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>26</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>608</v>
+      <c r="B37" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3746,11 +3739,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A3:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3761,24 +3754,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -3815,7 +3808,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>623</v>
+        <v>702</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3826,7 +3819,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>538</v>
+        <v>701</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3848,38 +3841,38 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>448</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>499</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>450</v>
       </c>
       <c r="D13" s="3"/>
@@ -3889,13 +3882,13 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>452</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -3908,10 +3901,10 @@
       <c r="A15" s="3">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>454</v>
       </c>
       <c r="D15" s="3"/>
@@ -3921,13 +3914,13 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>456</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -3940,10 +3933,10 @@
       <c r="A17" s="3">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>458</v>
       </c>
       <c r="D17" s="3"/>
@@ -3953,13 +3946,13 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <v>7</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>460</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -3972,10 +3965,10 @@
       <c r="A19" s="3">
         <v>8</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>462</v>
       </c>
       <c r="D19" s="3"/>
@@ -3985,13 +3978,13 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <v>9</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>464</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -4004,10 +3997,10 @@
       <c r="A21" s="3">
         <v>10</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>466</v>
       </c>
       <c r="D21" s="3"/>
@@ -4017,14 +4010,14 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="5">
         <v>11</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>540</v>
+      <c r="C22" s="3" t="s">
+        <v>535</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>509</v>
@@ -4036,10 +4029,10 @@
       <c r="A23" s="3">
         <v>12</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>469</v>
       </c>
       <c r="D23" s="3"/>
@@ -4049,13 +4042,13 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="5">
         <v>13</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>471</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -4068,10 +4061,10 @@
       <c r="A25" s="3">
         <v>14</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>473</v>
       </c>
       <c r="D25" s="3"/>
@@ -4081,13 +4074,13 @@
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="5">
         <v>15</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>475</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -4100,10 +4093,10 @@
       <c r="A27" s="3">
         <v>16</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>477</v>
       </c>
       <c r="D27" s="3"/>
@@ -4113,14 +4106,14 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="5">
         <v>17</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>542</v>
+      <c r="B28" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>537</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>515</v>
@@ -4132,11 +4125,11 @@
       <c r="A29" s="3">
         <v>18</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>544</v>
+      <c r="B29" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>539</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
@@ -4145,14 +4138,14 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="5">
         <v>19</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>546</v>
+      <c r="B30" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>517</v>
@@ -4164,11 +4157,11 @@
       <c r="A31" s="3">
         <v>20</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>548</v>
+      <c r="B31" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
@@ -4177,14 +4170,14 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="5">
         <v>21</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>690</v>
+      <c r="B32" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>684</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>519</v>
@@ -4196,30 +4189,30 @@
       <c r="A33" s="3">
         <v>22</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
+      <c r="B33" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>520</v>
       </c>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="5">
         <v>23</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>694</v>
+      <c r="B34" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>688</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4228,30 +4221,30 @@
       <c r="A35" s="3">
         <v>24</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>610</v>
+      <c r="B35" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>605</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="5">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>611</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4260,30 +4253,30 @@
       <c r="A37" s="3">
         <v>26</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>614</v>
+      <c r="B37" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>609</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="5">
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -4293,29 +4286,29 @@
         <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="5">
         <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -4331,7 +4324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4351,24 +4344,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -4438,11 +4431,11 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4792,11 +4785,11 @@
       <c r="C32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -4809,7 +4802,7 @@
         <v>84</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -4818,15 +4811,15 @@
       <c r="A34" s="3">
         <v>24</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>696</v>
+      <c r="B34" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>690</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F34" s="3"/>
     </row>
@@ -4834,14 +4827,14 @@
       <c r="A35" s="3">
         <v>25</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>556</v>
+      <c r="B35" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>551</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4850,15 +4843,15 @@
       <c r="A36" s="3">
         <v>26</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>558</v>
+      <c r="B36" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>553</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F36" s="3"/>
     </row>
@@ -4866,14 +4859,14 @@
       <c r="A37" s="3">
         <v>27</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>560</v>
+      <c r="B37" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>555</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4883,14 +4876,14 @@
         <v>28</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F38" s="3"/>
     </row>
@@ -4899,13 +4892,13 @@
         <v>29</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -4921,7 +4914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -4936,24 +4929,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -5023,11 +5016,11 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5377,8 +5370,8 @@
       <c r="C33" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>520</v>
       </c>
       <c r="F33" s="3"/>
@@ -5394,7 +5387,7 @@
         <v>130</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -5403,15 +5396,15 @@
       <c r="A35" s="3">
         <v>24</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>562</v>
+      <c r="B35" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>557</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -5419,14 +5412,14 @@
       <c r="A36" s="3">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>564</v>
+      <c r="B36" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>559</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -5435,15 +5428,15 @@
       <c r="A37" s="3">
         <v>26</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>566</v>
+      <c r="B37" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>561</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -5451,14 +5444,14 @@
       <c r="A38" s="3">
         <v>27</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>568</v>
+      <c r="B38" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>563</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -5468,14 +5461,14 @@
         <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -5484,13 +5477,13 @@
         <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -5506,7 +5499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5521,24 +5514,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -5608,11 +5601,11 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5736,7 +5729,7 @@
         <v>145</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
@@ -5962,8 +5955,8 @@
       <c r="C33" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>520</v>
       </c>
       <c r="F33" s="3"/>
@@ -5979,7 +5972,7 @@
         <v>175</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -5988,15 +5981,15 @@
       <c r="A35" s="3">
         <v>24</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>570</v>
+      <c r="B35" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>565</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -6004,14 +5997,14 @@
       <c r="A36" s="3">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>572</v>
+      <c r="B36" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>567</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -6020,15 +6013,15 @@
       <c r="A37" s="3">
         <v>26</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>574</v>
+      <c r="B37" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>569</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -6036,14 +6029,14 @@
       <c r="A38" s="3">
         <v>27</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>576</v>
+      <c r="B38" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>571</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -6053,14 +6046,14 @@
         <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -6069,13 +6062,13 @@
         <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -6091,7 +6084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -6109,24 +6102,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -6163,7 +6156,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -6196,11 +6189,11 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6208,10 +6201,10 @@
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -6224,10 +6217,10 @@
       <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>179</v>
       </c>
       <c r="D13" s="3"/>
@@ -6240,10 +6233,10 @@
       <c r="A14" s="3">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -6256,10 +6249,10 @@
       <c r="A15" s="3">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D15" s="3"/>
@@ -6272,10 +6265,10 @@
       <c r="A16" s="3">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -6288,10 +6281,10 @@
       <c r="A17" s="3">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D17" s="3"/>
@@ -6304,10 +6297,10 @@
       <c r="A18" s="3">
         <v>7</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -6320,10 +6313,10 @@
       <c r="A19" s="3">
         <v>8</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>191</v>
       </c>
       <c r="D19" s="3"/>
@@ -6336,10 +6329,10 @@
       <c r="A20" s="3">
         <v>9</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -6352,10 +6345,10 @@
       <c r="A21" s="3">
         <v>10</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>195</v>
       </c>
       <c r="D21" s="3"/>
@@ -6368,10 +6361,10 @@
       <c r="A22" s="3">
         <v>11</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>197</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -6384,10 +6377,10 @@
       <c r="A23" s="3">
         <v>12</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D23" s="3"/>
@@ -6400,10 +6393,10 @@
       <c r="A24" s="3">
         <v>13</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>201</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -6416,10 +6409,10 @@
       <c r="A25" s="3">
         <v>14</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D25" s="3"/>
@@ -6432,10 +6425,10 @@
       <c r="A26" s="3">
         <v>15</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -6448,10 +6441,10 @@
       <c r="A27" s="3">
         <v>16</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D27" s="3"/>
@@ -6464,10 +6457,10 @@
       <c r="A28" s="3">
         <v>17</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>209</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -6480,10 +6473,10 @@
       <c r="A29" s="3">
         <v>18</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>211</v>
       </c>
       <c r="D29" s="3"/>
@@ -6496,10 +6489,10 @@
       <c r="A30" s="3">
         <v>19</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" t="s">
         <v>212</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" t="s">
         <v>213</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -6512,10 +6505,10 @@
       <c r="A31" s="3">
         <v>20</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" t="s">
         <v>215</v>
       </c>
       <c r="D31" s="3"/>
@@ -6528,10 +6521,10 @@
       <c r="A32" s="3">
         <v>21</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" t="s">
         <v>217</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -6544,14 +6537,14 @@
       <c r="A33" s="3">
         <v>22</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" t="s">
         <v>218</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" t="s">
         <v>219</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>520</v>
       </c>
       <c r="F33" s="3"/>
@@ -6560,14 +6553,14 @@
       <c r="A34" s="3">
         <v>23</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" t="s">
         <v>221</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -6576,15 +6569,15 @@
       <c r="A35" s="3">
         <v>24</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>578</v>
+      <c r="B35" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>573</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -6592,14 +6585,14 @@
       <c r="A36" s="3">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>698</v>
+      <c r="B36" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>692</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -6608,15 +6601,15 @@
       <c r="A37" s="3">
         <v>26</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>580</v>
+      <c r="B37" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>575</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -6625,13 +6618,13 @@
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -6641,14 +6634,14 @@
         <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -6657,13 +6650,13 @@
         <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -6679,7 +6672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -6697,24 +6690,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -6784,11 +6777,11 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6796,10 +6789,10 @@
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="3" t="s">
         <v>223</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -6812,10 +6805,10 @@
       <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D13" s="3"/>
@@ -6828,10 +6821,10 @@
       <c r="A14" s="3">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>227</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -6844,10 +6837,10 @@
       <c r="A15" s="3">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>229</v>
       </c>
       <c r="D15" s="3"/>
@@ -6860,10 +6853,10 @@
       <c r="A16" s="3">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -6876,10 +6869,10 @@
       <c r="A17" s="3">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>233</v>
       </c>
       <c r="D17" s="3"/>
@@ -6892,10 +6885,10 @@
       <c r="A18" s="3">
         <v>7</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -6908,10 +6901,10 @@
       <c r="A19" s="3">
         <v>8</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D19" s="3"/>
@@ -6924,10 +6917,10 @@
       <c r="A20" s="3">
         <v>9</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -6940,11 +6933,11 @@
       <c r="A21" s="3">
         <v>10</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>687</v>
+      <c r="C21" s="3" t="s">
+        <v>681</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
@@ -6956,10 +6949,10 @@
       <c r="A22" s="3">
         <v>11</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>242</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -6972,10 +6965,10 @@
       <c r="A23" s="3">
         <v>12</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>244</v>
       </c>
       <c r="D23" s="3"/>
@@ -6988,10 +6981,10 @@
       <c r="A24" s="3">
         <v>13</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>246</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -7004,10 +6997,10 @@
       <c r="A25" s="3">
         <v>14</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>248</v>
       </c>
       <c r="D25" s="3"/>
@@ -7020,10 +7013,10 @@
       <c r="A26" s="3">
         <v>15</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -7036,10 +7029,10 @@
       <c r="A27" s="3">
         <v>16</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D27" s="3"/>
@@ -7052,10 +7045,10 @@
       <c r="A28" s="3">
         <v>17</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -7068,10 +7061,10 @@
       <c r="A29" s="3">
         <v>18</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>256</v>
       </c>
       <c r="D29" s="3"/>
@@ -7084,10 +7077,10 @@
       <c r="A30" s="3">
         <v>19</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>258</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -7100,10 +7093,10 @@
       <c r="A31" s="3">
         <v>20</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>260</v>
       </c>
       <c r="D31" s="3"/>
@@ -7116,10 +7109,10 @@
       <c r="A32" s="3">
         <v>21</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>262</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -7132,14 +7125,14 @@
       <c r="A33" s="3">
         <v>22</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>520</v>
       </c>
       <c r="F33" s="3"/>
@@ -7148,14 +7141,14 @@
       <c r="A34" s="3">
         <v>23</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>582</v>
+      <c r="B34" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>577</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -7164,15 +7157,15 @@
       <c r="A35" s="3">
         <v>24</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>584</v>
+      <c r="B35" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>579</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -7180,14 +7173,14 @@
       <c r="A36" s="3">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>586</v>
+      <c r="B36" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>581</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -7196,15 +7189,15 @@
       <c r="A37" s="3">
         <v>26</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>588</v>
+      <c r="B37" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>583</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -7213,13 +7206,13 @@
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -7229,14 +7222,14 @@
         <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -7245,13 +7238,13 @@
         <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -7267,11 +7260,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A3:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7283,24 +7276,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -7337,7 +7330,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -7348,7 +7341,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>531</v>
+        <v>697</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -7370,11 +7363,11 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7382,42 +7375,42 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>266</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>499</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>268</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>270</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -7430,10 +7423,10 @@
       <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D15" s="3"/>
@@ -7446,10 +7439,10 @@
       <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>274</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -7462,10 +7455,10 @@
       <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>276</v>
       </c>
       <c r="D17" s="3"/>
@@ -7478,10 +7471,10 @@
       <c r="A18" s="1">
         <v>7</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>278</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -7494,10 +7487,10 @@
       <c r="A19" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>280</v>
       </c>
       <c r="D19" s="3"/>
@@ -7510,11 +7503,11 @@
       <c r="A20" s="1">
         <v>9</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>539</v>
+      <c r="C20" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>507</v>
@@ -7526,10 +7519,10 @@
       <c r="A21" s="1">
         <v>10</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>283</v>
       </c>
       <c r="D21" s="3"/>
@@ -7542,10 +7535,10 @@
       <c r="A22" s="1">
         <v>11</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>285</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -7558,10 +7551,10 @@
       <c r="A23" s="1">
         <v>12</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>287</v>
       </c>
       <c r="D23" s="3"/>
@@ -7574,10 +7567,10 @@
       <c r="A24" s="1">
         <v>13</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>289</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -7590,10 +7583,10 @@
       <c r="A25" s="1">
         <v>14</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>291</v>
       </c>
       <c r="D25" s="3"/>
@@ -7606,10 +7599,10 @@
       <c r="A26" s="1">
         <v>15</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>293</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -7622,10 +7615,10 @@
       <c r="A27" s="1">
         <v>16</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D27" s="3"/>
@@ -7638,10 +7631,10 @@
       <c r="A28" s="1">
         <v>17</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>297</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -7654,10 +7647,10 @@
       <c r="A29" s="1">
         <v>18</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>299</v>
       </c>
       <c r="D29" s="3"/>
@@ -7670,10 +7663,10 @@
       <c r="A30" s="1">
         <v>19</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>301</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -7686,10 +7679,10 @@
       <c r="A31" s="1">
         <v>20</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>303</v>
       </c>
       <c r="D31" s="3"/>
@@ -7702,10 +7695,10 @@
       <c r="A32" s="1">
         <v>21</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>305</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -7718,14 +7711,14 @@
       <c r="A33" s="1">
         <v>22</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>520</v>
       </c>
       <c r="F33" s="3"/>
@@ -7734,14 +7727,14 @@
       <c r="A34" s="1">
         <v>23</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>590</v>
+      <c r="B34" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>585</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -7750,15 +7743,15 @@
       <c r="A35" s="1">
         <v>24</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>592</v>
+      <c r="B35" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>587</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -7766,14 +7759,14 @@
       <c r="A36" s="1">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>594</v>
+      <c r="B36" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>589</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -7782,15 +7775,15 @@
       <c r="A37" s="1">
         <v>26</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>596</v>
+      <c r="B37" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>591</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -7799,13 +7792,13 @@
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -7815,14 +7808,14 @@
         <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -7831,13 +7824,13 @@
         <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -7853,11 +7846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7868,24 +7861,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -7922,7 +7915,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -7933,7 +7926,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>533</v>
+        <v>698</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -7955,11 +7948,11 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7967,58 +7960,58 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>309</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>499</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>311</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>313</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>501</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>315</v>
       </c>
       <c r="D15" s="3"/>
@@ -8031,10 +8024,10 @@
       <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>317</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -8047,10 +8040,10 @@
       <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>319</v>
       </c>
       <c r="D17" s="3"/>
@@ -8063,10 +8056,10 @@
       <c r="A18" s="1">
         <v>7</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -8079,10 +8072,10 @@
       <c r="A19" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>323</v>
       </c>
       <c r="D19" s="3"/>
@@ -8095,10 +8088,10 @@
       <c r="A20" s="1">
         <v>9</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>325</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -8111,10 +8104,10 @@
       <c r="A21" s="1">
         <v>10</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D21" s="3"/>
@@ -8127,10 +8120,10 @@
       <c r="A22" s="1">
         <v>11</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -8143,11 +8136,11 @@
       <c r="A23" s="1">
         <v>12</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>688</v>
+      <c r="C23" s="3" t="s">
+        <v>682</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
@@ -8159,10 +8152,10 @@
       <c r="A24" s="1">
         <v>13</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>332</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -8175,10 +8168,10 @@
       <c r="A25" s="1">
         <v>14</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>334</v>
       </c>
       <c r="D25" s="3"/>
@@ -8191,10 +8184,10 @@
       <c r="A26" s="1">
         <v>15</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>336</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -8207,10 +8200,10 @@
       <c r="A27" s="1">
         <v>16</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>338</v>
       </c>
       <c r="D27" s="3"/>
@@ -8223,10 +8216,10 @@
       <c r="A28" s="1">
         <v>17</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>340</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -8239,10 +8232,10 @@
       <c r="A29" s="1">
         <v>18</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>342</v>
       </c>
       <c r="D29" s="3"/>
@@ -8255,10 +8248,10 @@
       <c r="A30" s="1">
         <v>19</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>344</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -8271,10 +8264,10 @@
       <c r="A31" s="1">
         <v>20</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>346</v>
       </c>
       <c r="D31" s="3"/>
@@ -8287,10 +8280,10 @@
       <c r="A32" s="1">
         <v>21</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>348</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -8303,14 +8296,14 @@
       <c r="A33" s="1">
         <v>22</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>520</v>
       </c>
       <c r="F33" s="3"/>
@@ -8319,14 +8312,14 @@
       <c r="A34" s="1">
         <v>23</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>352</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -8335,30 +8328,30 @@
       <c r="A35" s="1">
         <v>24</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>354</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>610</v>
+      </c>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>598</v>
+      <c r="B36" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>593</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -8367,15 +8360,15 @@
       <c r="A37" s="1">
         <v>26</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>600</v>
+      <c r="B37" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>595</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -8384,13 +8377,13 @@
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -8400,14 +8393,14 @@
         <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -8416,13 +8409,13 @@
         <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -8439,11 +8432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8454,24 +8447,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -8508,7 +8501,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -8519,7 +8512,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>535</v>
+        <v>699</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -8541,11 +8534,11 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8553,74 +8546,74 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>356</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>499</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>358</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>360</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>501</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>362</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>364</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -8633,10 +8626,10 @@
       <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>366</v>
       </c>
       <c r="D17" s="3"/>
@@ -8649,10 +8642,10 @@
       <c r="A18" s="1">
         <v>7</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>368</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -8665,10 +8658,10 @@
       <c r="A19" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>370</v>
       </c>
       <c r="D19" s="3"/>
@@ -8681,10 +8674,10 @@
       <c r="A20" s="1">
         <v>9</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>372</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -8697,10 +8690,10 @@
       <c r="A21" s="1">
         <v>10</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>374</v>
       </c>
       <c r="D21" s="3"/>
@@ -8713,10 +8706,10 @@
       <c r="A22" s="1">
         <v>11</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>376</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -8729,10 +8722,10 @@
       <c r="A23" s="1">
         <v>12</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>378</v>
       </c>
       <c r="D23" s="3"/>
@@ -8745,10 +8738,10 @@
       <c r="A24" s="1">
         <v>13</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>380</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -8761,10 +8754,10 @@
       <c r="A25" s="1">
         <v>14</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>382</v>
       </c>
       <c r="D25" s="3"/>
@@ -8777,10 +8770,10 @@
       <c r="A26" s="1">
         <v>15</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>384</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -8793,10 +8786,10 @@
       <c r="A27" s="1">
         <v>16</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>386</v>
       </c>
       <c r="D27" s="3"/>
@@ -8809,10 +8802,10 @@
       <c r="A28" s="1">
         <v>17</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>388</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -8825,10 +8818,10 @@
       <c r="A29" s="1">
         <v>18</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>390</v>
       </c>
       <c r="D29" s="3"/>
@@ -8841,10 +8834,10 @@
       <c r="A30" s="1">
         <v>19</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>392</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -8857,10 +8850,10 @@
       <c r="A31" s="1">
         <v>20</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>394</v>
       </c>
       <c r="D31" s="3"/>
@@ -8873,10 +8866,10 @@
       <c r="A32" s="1">
         <v>21</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>396</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -8889,14 +8882,14 @@
       <c r="A33" s="1">
         <v>22</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>520</v>
       </c>
       <c r="F33" s="3"/>
@@ -8905,14 +8898,14 @@
       <c r="A34" s="1">
         <v>23</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>400</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -8921,30 +8914,30 @@
       <c r="A35" s="1">
         <v>24</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>700</v>
+      <c r="B35" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>694</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>610</v>
+      </c>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>702</v>
+      <c r="B36" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>696</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -8953,15 +8946,15 @@
       <c r="A37" s="1">
         <v>26</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>602</v>
+      <c r="B37" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>597</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -8970,13 +8963,13 @@
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -8986,14 +8979,14 @@
         <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -9002,13 +8995,13 @@
         <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
